--- a/docs/ST3/ST3_31.07.24_output.xlsx
+++ b/docs/ST3/ST3_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731676470.047976</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731676474.0245504</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731676470.047976.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731676474.0245504.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>289.12</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>288.23</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.8899999999999864</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731676475.3919296</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731676475.3919296.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731676475.3919296.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>288.93</v>
       </c>
-      <c r="J4" t="n">
-        <v>288.93</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>289.15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.2199999999999704</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731676481.9735398</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731676483.9103746</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731676481.9735398.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731676483.9103746.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>133.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>132.58</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.9199999999999875</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -687,101 +721,113 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731676489.3268058</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731676739.5186384</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676489.3268058.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676739.5186384.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731676493.1153643</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731676495.771567</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731676493.1153643.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731676495.771567.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>133.17</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.33</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.160000000000025</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -789,95 +835,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731676500.757394</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731676500.757394.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731676500.757394.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>133.07</v>
       </c>
-      <c r="J8" t="n">
-        <v>133.07</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>133.35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731676517.9228616</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731676520.5333562</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731676517.9228616.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731676520.5333562.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>6774.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6770</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-4.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -885,95 +943,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731676521.6305642</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731676521.6305642.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731676521.6305642.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>6748.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>6748.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6747.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731676542.879879</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731676551.7767508</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731676542.879879.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731676551.7767508.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>513.35</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>514.05</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6999999999999318</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -981,51 +1051,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731676565.079391</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731676568.0841432</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676565.079391.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676568.0841432.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>1038.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1042</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-3.200000000000045</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -1033,51 +1109,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731676589.6923058</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731676591.9642882</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731676589.6923058.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731676591.9642882.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>11.967</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>11.956</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.01100000000000101</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1085,51 +1167,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731676619.2278426</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731676620.8023717</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676619.2278426.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676620.8023717.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>129.4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>130.66</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.259999999999991</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -1137,51 +1225,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731676663.8003442</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731676667.7058647</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731676663.8003442.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731676667.7058647.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>50.985</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>51.055</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1189,51 +1283,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731676675.5974836</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731676677.7113643</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731676675.5974836.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731676677.7113643.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>50.715</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>50.805</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.08999999999999631</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1241,51 +1341,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731676683.4541304</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731676688.0014365</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676683.4541304.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676688.0014365.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>1425.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1416.6</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-9.200000000000045</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -1293,51 +1399,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731676689.8514385</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731676693.2145388</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676689.8514385.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676693.2145388.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>1418.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1414.4</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>4.199999999999818</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1345,95 +1457,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731676696.944561</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731676696.944561.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731676696.944561.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>1413.8</v>
       </c>
-      <c r="J19" t="n">
-        <v>1413.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1416.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-2.799999999999955</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731676707.5566769</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731676711.2155745</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676707.5566769.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676711.2155745.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>61.11</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>60.88</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.2299999999999969</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -1441,51 +1565,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731676722.665874</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731676724.1595094</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676722.665874.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676724.1595094.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>60.76</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>60.55</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1493,101 +1623,113 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731676739.533571</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731676747.1493814</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676739.533571.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676747.1493814.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731676756.6222084</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731676762.4974833</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676756.6222084.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676762.4974833.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>142.22</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>143.32</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -1595,93 +1737,105 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731676762.4339387</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731676762.4339387.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731676762.4339387.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731676763.2046185</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731676765.2371044</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676763.2046185.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676765.2371044.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>142.94</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>143.56</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1689,51 +1843,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731676768.5347893</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731676773.170071</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676768.5347893.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676773.170071.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>143.94</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>143.94</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1741,95 +1901,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731676781.5682476</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731676781.5682476.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731676781.5682476.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>85.36</v>
       </c>
-      <c r="J27" t="n">
-        <v>85.36</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>84.88</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.480000000000004</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731676804.1593442</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731676807.0773184</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731676804.1593442.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731676807.0773184.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>376.23</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>373.56</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-2.670000000000016</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.7100000000000001</v>
       </c>
     </row>
@@ -1837,51 +2009,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731676827.2678535</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731676828.1567886</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676827.2678535.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676828.1567886.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>0.09754</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>0.0984</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.0008599999999999997</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -1889,51 +2067,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731676829.6737792</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731676833.6444783</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676829.6737792.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676833.6444783.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>0.09822</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.0004000000000000115</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1941,51 +2125,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731676839.3142936</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731676840.8021178</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676839.3142936.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676840.8021178.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>0.09950000000000001</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>0.10018</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.00068</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -1993,51 +2183,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731676841.6449566</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731676846.5215433</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676841.6449566.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676846.5215433.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>0.09994000000000001</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>0.1</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>5.999999999999062e-05</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2045,51 +2241,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731676852.115275</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731676855.0616748</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676852.115275.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676855.0616748.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>34.735</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>34.63</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.1049999999999969</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -2195,19 +2397,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.000000000000227</v>
+        <v>-7.800000000000182</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.666666666666742</v>
+        <v>-2.60000000000006</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.35</v>
+        <v>-0.55</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="5">
@@ -2217,19 +2419,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7599999999999625</v>
+        <v>-1.039999999999964</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2533333333333208</v>
+        <v>-0.3466666666666545</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.57</v>
+        <v>-0.7799999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.19</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="6">
@@ -2261,16 +2463,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.06999999999999999</v>
+        <v>-0.05999999999999999</v>
       </c>
       <c r="F7" t="n">
         <v>-0.03</v>
@@ -2283,19 +2485,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8899999999999864</v>
+        <v>0.6700000000000159</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4449999999999932</v>
+        <v>0.335000000000008</v>
       </c>
       <c r="E8" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
@@ -2393,19 +2595,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.5599999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="14">
